--- a/ChemSetDM/ChemSetDM.xlsx
+++ b/ChemSetDM/ChemSetDM.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr date1904="1" showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="4740" yWindow="5660" windowWidth="21600" windowHeight="15320" tabRatio="500"/>
+    <workbookView xWindow="12960" yWindow="-80" windowWidth="21600" windowHeight="15320" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -21,6 +21,550 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="243" uniqueCount="170">
   <si>
+    <t xml:space="preserve">11yo girl Johanna Fanizzi drank mouthful of solution, mistaking it for her Ribena. Consumer Protection Act - fined 2000. Box warned chemicals were dangerous, not to be used unsupervised. Picture on box. No lethal warning. Set contained enough copper sulphate to kill 14 people. Worcester magistrates. This was a crystal garden set, rather than a full chemistry set. </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Wed</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>multiple display advertising</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Own bomb kills Colin, 17</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>19.02.47</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>news</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">Found dead in loft, Frederick Sterck, brilliant student mad about chemistry, sever head wounds. Spsom. </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">Lott's Toy Bricks, stone also Chem set - Give your boy watch him pass in science with flying colours. </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>13.11.47</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Thurs</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Boy Injured</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>05.07.52</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Sat</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>David Wilkins 11 injured playing with chem set hove, Suxsecx Eye Hospital</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Beware the cutting gassing burning killing present</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Wind in the Willows - Toad digs out his old chemistry set</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">16yr old Kenneth Harris, seriously ill in hospital after explosions at his home in Paisley, further controlled explosions by bomb disposal experts. explosives made were highly complex nature and unbelievably advanced for his age. </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Heathrow, AerLingus bag left near Barclays, in hollowed ot Hovis loaf. Police described bomb as 'a schoolboy chemistry set sort of effort"</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>father bought for xmas, instructions said to wear goggles and apron but box and instructions did not show children using these. Sarah Hordern age 9</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>general antiscience, "the ere glimpse of a toddler's first chem set makes my mind go glazed" the trouble is that people are blasé perhaps punch drunk with the marvels of science</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>A little bit on the top for Mr O'B</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>29.12.61</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Fri</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>13yr old Billy O'Brien accidentally made baldness cure, can't remember what he did</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Fight for Sugar-Bomb boy's life</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>19.03.62</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>A forgotten chemistry set starts London fire</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>05.08.53</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">schoolboy's chem set left for 4 years - water covering phosphorus had evaporated. </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">Boys blown up by their own 'bomb' </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>30.12.53</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">15 yr old, Derek Bullock, Surrey, not the first time friend John Jesty had been injured in can expt that blew up. </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Very Happy?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>06.01.54</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>letters</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">gender of lrelayed letter sentifment not reviealed - 10yr old friend Mummy and Daddy gave me a chems et for xmas. Can now change blue water into red, bend glass and make atomic energy. A very happy new year. </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Race to save gunpowder boy's life</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>11.01.54</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">12yr old John Jesty, who has twice blown himself up with homemade expolosives, gravely ill after 2nd explosion result of a compound he made with the chem set his father gave him for xmas. </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Boy loses thumb</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>01.05.56</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Daily Mail</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>"Chemistry Set"</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Fathers &amp; Uncles here's a present any boy will REALLY treasry. Pleasure, teach, tinker, hundresd of expts, arranged by a dr of science.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Tues</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>advertising</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Gamages chemistry set for the boy who likes experimenting</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>04.12.33</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">06.12.32 </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Mon</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>multiple display advertising</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">Lott's Toy Bricks, stone also Chem set - Give your boy watch him pass in science with flying colours. </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>06.11.46</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>03.12.70</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>18.12.70</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">they are advertised as safe but are they completely safe? Daily Mail got Royal Institute of Chemistry to look at contents and instructions - found wanting. We do not accept that they should be banned but there are however a few faults which we think should be remedied quickly. </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Chemistry set faults</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>22.12.70</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>corrections</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">13yr old Christopher Lee  hand blown off, shrapnel in stomach weedkiller and sugar bomb. Nottinghapshire. Had been exploding bombs since given a chem set last year. Craze fo bigger and better bangs among boys in area. Equpt confiscated by father, still in the bin, must have got his stuff elsewhere. </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Give them this chemistry set for their xmas or birthday</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>14.11.64</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">Mums, Dads, Aunts and Uncles, Boys and Girls 26 tubes full of chemicals, spirit burner. Full instructions, highly educationsal for school work boys and girls. Standard Supplies Goldhawk rd. </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>BBC2 brings on the ghouls</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>25.02.65</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Munsters TV show - Eddie has chemistry set that makes chemists.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Schoolboy, 14, hurt in blast with gift chemistry set</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>12yr old Maurice Dray (Kent) lost a thumb and finger in an explosion esterday when playing with a toy chemistry set.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>A teetotaller produced 8s 6d a bottle whisky</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>11.12.56</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Tues</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>man makes whisky from potato wine, using chemistry set, what a schoolboy would use. Workmates bought it from him. Interested in chemistry, see if he could do it. . Fined £18, had to smash equpt.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>You might be a father 200yrs from now if the laboratory boffins have their way</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>24.01.59</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>book column</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Daddy has warned you, Bernard, if you don't stop[making clones]  he'll take your chemistry set away</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Mac</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Boy dies copying hanging on TV</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>17.08.78</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Thurs</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>16y/o "a bit of a handful, set fire to the lounge once w chemistry set" parents divorced - film The Hanged Man</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Bionic Burke comes down to earth</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>14.10.78</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Royal institute of chemistry points out that the principle of the sets was good, modifications which the Institue would rather see than have the possibility of tragedy.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Off on a flight of fantasy</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>21.08.73</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">BBC radio 4, replacement for Children's Hour axed 10yrs ago - old junior thriller heroes boy detectives more Chemistry Set than Jet Set. </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>The clue is in the second bottle</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">not made use of my chemistry set, by taste alone I could name wines which are not what they purport to be. </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>article</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>13.10.73</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Schoolboy bombs rock town centre</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>09.08.75</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>British wife on drugs charge</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>08.07.76</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>27.12.67</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">14yr old Owen Clarke, explosion hours after given gift. Wimbledon. </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>What the taxman sees in your nightie</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">purchase tax - chemistry set is subject to it, but not carpenters set. </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>article</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>26.02.69</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Loaf bomb hits airport</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>28.09.70</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Woolworths</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>full page ad</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>various toys show, chemistry set by Ment</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>vocab  - houses of parliament have so long been a sort of huge sexual chemistry set it ought not to surprise anyoe that they have just given off another nasty whiff of scandal.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>29.12.81</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>WHSmith</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>26.11.82</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>price list- creative toys - chemistry set</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>09.11.83</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Weds</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>advert</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">price list - activity toys  - chemistry set christmas price is still £7.99, £2 off usual price. </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>I boggled at this goggle box</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>07.01.84</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ITV London</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Aubrey - problems with a chemistry set</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TV listings</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">TV review - "with all the enthusiasm of a small boy let loose w 1st chemistry set he would explode with delight". </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>It has to be a soil test kit for christmas</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>24.11.79</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">Page of gardening. Home Gardener's simple fascinating chemisty set reveals instantly what any soil needs to  prouce better flowers and vegetables. Post Sudbury or available nationally Boots, Woolworths garden branches. </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>full page ad</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Argos</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>09.11.81</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>WHSmith</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>01.12.81</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>half page ad</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">ex pat in Rome, accused of growing marijuana. Same family gave young son chemistry set and glassware, police suggested this could have been used for distilling heroin. Conspiracy. </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Taking a shine to Vidal's gook</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>18.09.76</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">fashion - USA, new product discussed in terms of "hated the sort of amateur chemistry set" one needs to 'pass', doesn't contain all that fancy stuff most of the ladies chimistry sets do - no seaweed, or poassion flower or lotus, justst proetin micronised. </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>27.07.78</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>cartoon</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t xml:space="preserve">vocab - TV review - The Secret Life of the Refrigerator - Tim Hunkin Rex Garrod - conducting demos like a mad profesor showing off the dangerous possibilities of a chemistry set. </t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -33,10 +577,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t xml:space="preserve">11yo girl Johanna Fanizzi drank mouthful of solution, mistaking it for her Ribena. Consumer Protection Act - fined 2000. Box warned chemicals were dangerous, not to be used unsupervised. Picture on box. No lethal warning. Set contained enough copper sulphate to kill 14 people. Worcester magistrates. </t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Chemistry set killed girl, 11</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -117,10 +657,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Wind in the Willows - Toad digs out his old chemistry set</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>TV listings</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -162,542 +698,6 @@
   </si>
   <si>
     <t>When scandal hits an MP</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>vocab  - houses of parliament have so long been a sort of huge sexual chemistry set it ought not to surprise anyoe that they have just given off another nasty whiff of scandal.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>29.12.81</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>WHSmith</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>26.11.82</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>price list- creative toys - chemistry set</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>09.11.83</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Weds</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>advert</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">price list - activity toys  - chemistry set christmas price is still £7.99, £2 off usual price. </t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>father bought for xmas, instructions said to wear goggles and apron but box and instructions did not show children using these. Sarah Hordern age 9</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>I boggled at this goggle box</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>07.01.84</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ITV London</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Aubrey - problems with a chemistry set</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>TV listings</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">TV review - "with all the enthusiasm of a small boy let loose w 1st chemistry set he would explode with delight". </t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>It has to be a soil test kit for christmas</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>24.11.79</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">Page of gardening. Home Gardener's simple fascinating chemisty set reveals instantly what any soil needs to  prouce better flowers and vegetables. Post Sudbury or available nationally Boots, Woolworths garden branches. </t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>full page ad</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Argos</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>09.11.81</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>WHSmith</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>01.12.81</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>half page ad</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">ex pat in Rome, accused of growing marijuana. Same family gave young son chemistry set and glassware, police suggested this could have been used for distilling heroin. Conspiracy. </t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Taking a shine to Vidal's gook</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>18.09.76</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">fashion - USA, new product discussed in terms of "hated the sort of amateur chemistry set" one needs to 'pass', doesn't contain all that fancy stuff most of the ladies chimistry sets do - no seaweed, or poassion flower or lotus, justst proetin micronised. </t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>27.07.78</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>cartoon</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Daddy has warned you, Bernard, if you don't stop[making clones]  he'll take your chemistry set away</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Mac</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Boy dies copying hanging on TV</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>17.08.78</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Thurs</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>16y/o "a bit of a handful, set fire to the lounge once w chemistry set" parents divorced - film The Hanged Man</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Bionic Burke comes down to earth</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>14.10.78</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Royal institute of chemistry points out that the principle of the sets was good, modifications which the Institue would rather see than have the possibility of tragedy.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Off on a flight of fantasy</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>21.08.73</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">BBC radio 4, replacement for Children's Hour axed 10yrs ago - old junior thriller heroes boy detectives more Chemistry Set than Jet Set. </t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>The clue is in the second bottle</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">not made use of my chemistry set, by taste alone I could name wines which are not what they purport to be. </t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>article</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>13.10.73</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Schoolboy bombs rock town centre</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>09.08.75</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">16yr old Kenneth Harris, seriously ill in hospital after explosions at his home in Paisley, further controlled explosions by bomb disposal experts. explosives made were highly complex nature and unbelievably advanced for his age. </t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>British wife on drugs charge</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>08.07.76</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>27.12.67</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">14yr old Owen Clarke, explosion hours after given gift. Wimbledon. </t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>What the taxman sees in your nightie</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">purchase tax - chemistry set is subject to it, but not carpenters set. </t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>article</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>26.02.69</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Loaf bomb hits airport</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>28.09.70</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Heathrow, AerLingus bag left near Barclays, in hollowed ot Hovis loaf. Police described bomb as 'a schoolboy chemistry set sort of effort"</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Woolworths</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>full page ad</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>various toys show, chemistry set by Ment</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>03.12.70</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Beware the cutting gassing burning killing present</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>18.12.70</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">they are advertised as safe but are they completely safe? Daily Mail got Royal Institute of Chemistry to look at contents and instructions - found wanting. We do not accept that they should be banned but there are however a few faults which we think should be remedied quickly. </t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Chemistry set faults</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>22.12.70</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>corrections</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">13yr old Christopher Lee  hand blown off, shrapnel in stomach weedkiller and sugar bomb. Nottinghapshire. Had been exploding bombs since given a chem set last year. Craze fo bigger and better bangs among boys in area. Equpt confiscated by father, still in the bin, must have got his stuff elsewhere. </t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Give them this chemistry set for their xmas or birthday</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>14.11.64</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">Mums, Dads, Aunts and Uncles, Boys and Girls 26 tubes full of chemicals, spirit burner. Full instructions, highly educationsal for school work boys and girls. Standard Supplies Goldhawk rd. </t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>BBC2 brings on the ghouls</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>25.02.65</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Munsters TV show - Eddie has chemistry set that makes chemists.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Schoolboy, 14, hurt in blast with gift chemistry set</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>12yr old Maurice Dray (Kent) lost a thumb and finger in an explosion esterday when playing with a toy chemistry set.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>A teetotaller produced 8s 6d a bottle whisky</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>11.12.56</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Tues</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>man makes whisky from potato wine, using chemistry set, what a schoolboy would use. Workmates bought it from him. Interested in chemistry, see if he could do it. . Fined £18, had to smash equpt.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>You might be a father 200yrs from now if the laboratory boffins have their way</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>24.01.59</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>book column</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>general antiscience, "the ere glimpse of a toddler's first chem set makes my mind go glazed" the trouble is that people are blasé perhaps punch drunk with the marvels of science</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>A little bit on the top for Mr O'B</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>29.12.61</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Fri</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>13yr old Billy O'Brien accidentally made baldness cure, can't remember what he did</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Fight for Sugar-Bomb boy's life</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>19.03.62</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>A forgotten chemistry set starts London fire</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>05.08.53</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">schoolboy's chem set left for 4 years - water covering phosphorus had evaporated. </t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">Boys blown up by their own 'bomb' </t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>30.12.53</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">15 yr old, Derek Bullock, Surrey, not the first time friend John Jesty had been injured in can expt that blew up. </t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Very Happy?</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>06.01.54</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>letters</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">gender of lrelayed letter sentifment not reviealed - 10yr old friend Mummy and Daddy gave me a chems et for xmas. Can now change blue water into red, bend glass and make atomic energy. A very happy new year. </t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Race to save gunpowder boy's life</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>11.01.54</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">12yr old John Jesty, who has twice blown himself up with homemade expolosives, gravely ill after 2nd explosion result of a compound he made with the chem set his father gave him for xmas. </t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Boy loses thumb</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>01.05.56</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Daily Mail</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>"Chemistry Set"</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Fathers &amp; Uncles here's a present any boy will REALLY treasry. Pleasure, teach, tinker, hundresd of expts, arranged by a dr of science.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Tues</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>advertising</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Gamages chemistry set for the boy who likes experimenting</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>04.12.33</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">06.12.32 </t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Mon</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>multiple display advertising</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">Lott's Toy Bricks, stone also Chem set - Give your boy watch him pass in science with flying colours. </t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>06.11.46</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Wed</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>multiple display advertising</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Own bomb kills Colin, 17</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>19.02.47</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>news</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">Found dead in loft, Frederick Sterck, brilliant student mad about chemistry, sever head wounds. Spsom. </t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">Lott's Toy Bricks, stone also Chem set - Give your boy watch him pass in science with flying colours. </t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>13.11.47</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Thurs</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Boy Injured</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>05.07.52</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Sat</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>David Wilkins 11 injured playing with chem set hove, Suxsecx Eye Hospital</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1069,986 +1069,991 @@
   <sheetPr published="0" enableFormatConditionsCalculation="0"/>
   <dimension ref="A1:F52"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageLayout" topLeftCell="A6" workbookViewId="0">
-      <selection activeCell="A51" sqref="A51"/>
+    <sheetView tabSelected="1" view="pageLayout" topLeftCell="A20" workbookViewId="0">
+      <selection activeCell="A53" sqref="A53"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13"/>
+  <cols>
+    <col min="1" max="1" width="18.85546875" customWidth="1"/>
+    <col min="2" max="2" width="8.28515625" customWidth="1"/>
+    <col min="3" max="3" width="4.42578125" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:6">
       <c r="A1" t="s">
-        <v>145</v>
+        <v>41</v>
       </c>
       <c r="B1" t="s">
-        <v>146</v>
+        <v>42</v>
       </c>
     </row>
     <row r="3" spans="1:6">
       <c r="A3" t="s">
-        <v>147</v>
+        <v>43</v>
       </c>
       <c r="B3" t="s">
-        <v>152</v>
+        <v>48</v>
       </c>
       <c r="C3">
         <v>19</v>
       </c>
       <c r="D3" t="s">
-        <v>148</v>
+        <v>44</v>
       </c>
       <c r="E3" t="s">
-        <v>154</v>
+        <v>50</v>
       </c>
     </row>
     <row r="4" spans="1:6">
       <c r="A4" t="s">
-        <v>150</v>
+        <v>46</v>
       </c>
       <c r="B4" t="s">
-        <v>151</v>
+        <v>47</v>
       </c>
       <c r="C4">
         <v>6</v>
       </c>
       <c r="D4" t="s">
-        <v>153</v>
+        <v>49</v>
       </c>
       <c r="E4" t="s">
-        <v>149</v>
+        <v>45</v>
       </c>
     </row>
     <row r="5" spans="1:6">
       <c r="A5" t="s">
-        <v>155</v>
+        <v>51</v>
       </c>
       <c r="B5" t="s">
-        <v>156</v>
+        <v>52</v>
       </c>
       <c r="C5">
         <v>4</v>
       </c>
       <c r="D5" t="s">
-        <v>157</v>
+        <v>1</v>
       </c>
       <c r="E5" t="s">
-        <v>158</v>
+        <v>2</v>
       </c>
     </row>
     <row r="6" spans="1:6">
       <c r="A6" t="s">
-        <v>159</v>
+        <v>3</v>
       </c>
       <c r="B6" t="s">
-        <v>160</v>
+        <v>4</v>
       </c>
       <c r="C6">
         <v>1</v>
       </c>
       <c r="D6" t="s">
-        <v>157</v>
+        <v>1</v>
       </c>
       <c r="E6" t="s">
-        <v>161</v>
+        <v>5</v>
       </c>
       <c r="F6" t="s">
-        <v>162</v>
+        <v>6</v>
       </c>
     </row>
     <row r="7" spans="1:6">
       <c r="A7" t="s">
-        <v>163</v>
+        <v>7</v>
       </c>
       <c r="B7" t="s">
-        <v>164</v>
+        <v>8</v>
       </c>
       <c r="C7">
         <v>2</v>
       </c>
       <c r="D7" t="s">
-        <v>165</v>
+        <v>9</v>
       </c>
       <c r="E7" t="s">
-        <v>158</v>
+        <v>2</v>
       </c>
     </row>
     <row r="9" spans="1:6">
       <c r="A9" t="s">
-        <v>166</v>
+        <v>10</v>
       </c>
       <c r="B9" t="s">
-        <v>167</v>
+        <v>11</v>
       </c>
       <c r="C9">
         <v>3</v>
       </c>
       <c r="D9" t="s">
-        <v>168</v>
+        <v>12</v>
       </c>
       <c r="E9" t="s">
-        <v>161</v>
+        <v>5</v>
       </c>
       <c r="F9" t="s">
-        <v>169</v>
+        <v>13</v>
       </c>
     </row>
     <row r="10" spans="1:6">
       <c r="A10" t="s">
-        <v>130</v>
+        <v>26</v>
       </c>
       <c r="B10" t="s">
-        <v>131</v>
+        <v>27</v>
       </c>
       <c r="C10">
         <v>1</v>
       </c>
       <c r="D10" t="s">
-        <v>157</v>
+        <v>1</v>
       </c>
       <c r="E10" t="s">
-        <v>161</v>
+        <v>5</v>
       </c>
       <c r="F10" t="s">
-        <v>132</v>
+        <v>28</v>
       </c>
     </row>
     <row r="11" spans="1:6">
       <c r="A11" t="s">
-        <v>133</v>
+        <v>29</v>
       </c>
       <c r="B11" t="s">
-        <v>134</v>
+        <v>30</v>
       </c>
       <c r="C11">
         <v>1</v>
       </c>
       <c r="D11" t="s">
-        <v>157</v>
+        <v>1</v>
       </c>
       <c r="E11" t="s">
-        <v>161</v>
+        <v>5</v>
       </c>
       <c r="F11" t="s">
-        <v>135</v>
+        <v>31</v>
       </c>
     </row>
     <row r="12" spans="1:6">
       <c r="A12" t="s">
-        <v>136</v>
+        <v>32</v>
       </c>
       <c r="B12" t="s">
-        <v>137</v>
+        <v>33</v>
       </c>
       <c r="C12">
         <v>2</v>
       </c>
       <c r="D12" t="s">
-        <v>157</v>
+        <v>1</v>
       </c>
       <c r="E12" t="s">
-        <v>138</v>
+        <v>34</v>
       </c>
       <c r="F12" t="s">
-        <v>139</v>
+        <v>35</v>
       </c>
     </row>
     <row r="13" spans="1:6">
       <c r="A13" t="s">
-        <v>140</v>
+        <v>36</v>
       </c>
       <c r="B13" t="s">
-        <v>141</v>
+        <v>37</v>
       </c>
       <c r="C13">
         <v>5</v>
       </c>
       <c r="D13" t="s">
-        <v>153</v>
+        <v>49</v>
       </c>
       <c r="E13" t="s">
-        <v>161</v>
+        <v>5</v>
       </c>
       <c r="F13" t="s">
-        <v>142</v>
+        <v>38</v>
       </c>
     </row>
     <row r="14" spans="1:6">
       <c r="A14" t="s">
-        <v>143</v>
+        <v>39</v>
       </c>
       <c r="B14" t="s">
-        <v>144</v>
+        <v>40</v>
       </c>
       <c r="C14">
         <v>3</v>
       </c>
       <c r="D14" t="s">
-        <v>118</v>
+        <v>70</v>
       </c>
       <c r="E14" t="s">
-        <v>161</v>
+        <v>5</v>
       </c>
       <c r="F14" t="s">
-        <v>115</v>
+        <v>67</v>
       </c>
     </row>
     <row r="15" spans="1:6">
       <c r="A15" t="s">
-        <v>116</v>
+        <v>68</v>
       </c>
       <c r="B15" t="s">
-        <v>117</v>
+        <v>69</v>
       </c>
       <c r="C15">
         <v>3</v>
       </c>
       <c r="D15" t="s">
-        <v>148</v>
+        <v>44</v>
       </c>
       <c r="E15" t="s">
-        <v>161</v>
+        <v>5</v>
       </c>
       <c r="F15" t="s">
-        <v>119</v>
+        <v>71</v>
       </c>
     </row>
     <row r="16" spans="1:6">
       <c r="A16" t="s">
-        <v>120</v>
+        <v>72</v>
       </c>
       <c r="B16" t="s">
-        <v>121</v>
+        <v>73</v>
       </c>
       <c r="C16">
         <v>4</v>
       </c>
       <c r="D16" t="s">
-        <v>168</v>
+        <v>12</v>
       </c>
       <c r="E16" t="s">
-        <v>122</v>
+        <v>74</v>
       </c>
       <c r="F16" t="s">
-        <v>123</v>
+        <v>19</v>
       </c>
     </row>
     <row r="17" spans="1:6">
       <c r="A17" t="s">
-        <v>124</v>
+        <v>20</v>
       </c>
       <c r="B17" t="s">
-        <v>125</v>
+        <v>21</v>
       </c>
       <c r="C17">
         <v>5</v>
       </c>
       <c r="D17" t="s">
-        <v>126</v>
+        <v>22</v>
       </c>
       <c r="E17" t="s">
-        <v>161</v>
+        <v>5</v>
       </c>
       <c r="F17" t="s">
-        <v>127</v>
+        <v>23</v>
       </c>
     </row>
     <row r="18" spans="1:6">
       <c r="A18" t="s">
-        <v>128</v>
+        <v>24</v>
       </c>
       <c r="B18" t="s">
-        <v>129</v>
+        <v>25</v>
       </c>
       <c r="C18">
         <v>6</v>
       </c>
       <c r="D18" t="s">
-        <v>153</v>
+        <v>49</v>
       </c>
       <c r="E18" t="s">
-        <v>161</v>
+        <v>5</v>
       </c>
       <c r="F18" t="s">
-        <v>107</v>
+        <v>59</v>
       </c>
     </row>
     <row r="19" spans="1:6">
       <c r="A19" t="s">
-        <v>108</v>
+        <v>60</v>
       </c>
       <c r="B19" t="s">
-        <v>109</v>
+        <v>61</v>
       </c>
       <c r="C19">
         <v>16</v>
       </c>
       <c r="D19" t="s">
-        <v>168</v>
+        <v>12</v>
       </c>
       <c r="E19" t="s">
-        <v>158</v>
+        <v>2</v>
       </c>
       <c r="F19" t="s">
-        <v>110</v>
+        <v>62</v>
       </c>
     </row>
     <row r="20" spans="1:6">
       <c r="A20" t="s">
-        <v>111</v>
+        <v>63</v>
       </c>
       <c r="B20" t="s">
-        <v>112</v>
+        <v>64</v>
       </c>
       <c r="C20">
         <v>14</v>
       </c>
       <c r="D20" t="s">
-        <v>165</v>
+        <v>9</v>
       </c>
       <c r="E20" t="s">
-        <v>161</v>
+        <v>5</v>
       </c>
       <c r="F20" t="s">
-        <v>113</v>
+        <v>65</v>
       </c>
     </row>
     <row r="21" spans="1:6">
       <c r="A21" t="s">
-        <v>114</v>
+        <v>66</v>
       </c>
       <c r="B21" t="s">
-        <v>88</v>
+        <v>95</v>
       </c>
       <c r="C21">
         <v>4</v>
       </c>
       <c r="D21" t="s">
-        <v>157</v>
+        <v>1</v>
       </c>
       <c r="E21" t="s">
-        <v>161</v>
+        <v>5</v>
       </c>
       <c r="F21" t="s">
-        <v>89</v>
+        <v>96</v>
       </c>
     </row>
     <row r="22" spans="1:6">
       <c r="A22" t="s">
-        <v>90</v>
+        <v>97</v>
       </c>
       <c r="B22" t="s">
-        <v>93</v>
+        <v>100</v>
       </c>
       <c r="C22">
         <v>20</v>
       </c>
       <c r="D22" t="s">
-        <v>157</v>
+        <v>1</v>
       </c>
       <c r="E22" t="s">
-        <v>92</v>
+        <v>99</v>
       </c>
       <c r="F22" t="s">
-        <v>91</v>
+        <v>98</v>
       </c>
     </row>
     <row r="23" spans="1:6">
       <c r="A23" t="s">
-        <v>94</v>
+        <v>101</v>
       </c>
       <c r="B23" t="s">
-        <v>95</v>
+        <v>102</v>
       </c>
       <c r="C23">
         <v>1</v>
       </c>
       <c r="D23" t="s">
-        <v>153</v>
+        <v>49</v>
       </c>
       <c r="E23" t="s">
-        <v>161</v>
+        <v>5</v>
       </c>
       <c r="F23" t="s">
-        <v>96</v>
+        <v>17</v>
       </c>
     </row>
     <row r="24" spans="1:6">
       <c r="A24" t="s">
-        <v>97</v>
+        <v>103</v>
       </c>
       <c r="B24" t="s">
-        <v>100</v>
+        <v>53</v>
       </c>
       <c r="C24">
         <v>13</v>
       </c>
       <c r="D24" t="s">
-        <v>165</v>
+        <v>9</v>
       </c>
       <c r="E24" t="s">
-        <v>98</v>
+        <v>104</v>
       </c>
       <c r="F24" t="s">
-        <v>99</v>
+        <v>105</v>
       </c>
     </row>
     <row r="25" spans="1:6">
       <c r="A25" t="s">
-        <v>101</v>
+        <v>14</v>
       </c>
       <c r="B25" t="s">
-        <v>102</v>
+        <v>54</v>
       </c>
       <c r="C25">
         <v>12</v>
       </c>
       <c r="D25" t="s">
-        <v>126</v>
+        <v>22</v>
       </c>
       <c r="E25" t="s">
-        <v>92</v>
+        <v>99</v>
       </c>
       <c r="F25" t="s">
-        <v>103</v>
+        <v>55</v>
       </c>
     </row>
     <row r="26" spans="1:6">
       <c r="A26" t="s">
-        <v>104</v>
+        <v>56</v>
       </c>
       <c r="B26" t="s">
-        <v>105</v>
+        <v>57</v>
       </c>
       <c r="C26">
         <v>7</v>
       </c>
       <c r="D26" t="s">
-        <v>148</v>
+        <v>44</v>
       </c>
       <c r="E26" t="s">
-        <v>106</v>
+        <v>58</v>
       </c>
       <c r="F26" t="s">
-        <v>75</v>
+        <v>83</v>
       </c>
     </row>
     <row r="27" spans="1:6">
       <c r="A27" t="s">
-        <v>76</v>
+        <v>84</v>
       </c>
       <c r="B27" t="s">
-        <v>77</v>
+        <v>85</v>
       </c>
       <c r="C27">
         <v>19</v>
       </c>
       <c r="D27" t="s">
-        <v>148</v>
+        <v>44</v>
       </c>
       <c r="E27" t="s">
-        <v>92</v>
+        <v>99</v>
       </c>
       <c r="F27" t="s">
-        <v>78</v>
+        <v>86</v>
       </c>
     </row>
     <row r="28" spans="1:6">
       <c r="A28" t="s">
-        <v>79</v>
+        <v>87</v>
       </c>
       <c r="B28" t="s">
-        <v>82</v>
+        <v>90</v>
       </c>
       <c r="C28">
         <v>27</v>
       </c>
       <c r="D28" t="s">
-        <v>168</v>
+        <v>12</v>
       </c>
       <c r="E28" t="s">
-        <v>81</v>
+        <v>89</v>
       </c>
       <c r="F28" t="s">
-        <v>80</v>
+        <v>88</v>
       </c>
     </row>
     <row r="29" spans="1:6">
       <c r="A29" t="s">
-        <v>83</v>
+        <v>91</v>
       </c>
       <c r="B29" t="s">
-        <v>84</v>
+        <v>92</v>
       </c>
       <c r="C29">
         <v>1</v>
       </c>
       <c r="D29" t="s">
-        <v>168</v>
+        <v>12</v>
       </c>
       <c r="E29" t="s">
-        <v>161</v>
+        <v>5</v>
       </c>
       <c r="F29" t="s">
-        <v>85</v>
+        <v>16</v>
       </c>
     </row>
     <row r="30" spans="1:6">
       <c r="A30" t="s">
-        <v>86</v>
+        <v>93</v>
       </c>
       <c r="B30" t="s">
-        <v>87</v>
+        <v>94</v>
       </c>
       <c r="C30">
         <v>4</v>
       </c>
       <c r="D30" t="s">
-        <v>165</v>
+        <v>9</v>
       </c>
       <c r="E30" t="s">
-        <v>161</v>
+        <v>5</v>
       </c>
       <c r="F30" t="s">
-        <v>61</v>
+        <v>130</v>
       </c>
     </row>
     <row r="31" spans="1:6">
       <c r="A31" t="s">
-        <v>62</v>
+        <v>131</v>
       </c>
       <c r="B31" t="s">
-        <v>63</v>
+        <v>132</v>
       </c>
       <c r="C31">
         <v>2</v>
       </c>
       <c r="D31" t="s">
-        <v>168</v>
+        <v>12</v>
       </c>
       <c r="E31" t="s">
-        <v>92</v>
+        <v>99</v>
       </c>
       <c r="F31" t="s">
-        <v>64</v>
+        <v>133</v>
       </c>
     </row>
     <row r="32" spans="1:6">
       <c r="A32" t="s">
-        <v>68</v>
+        <v>76</v>
       </c>
       <c r="B32" t="s">
-        <v>65</v>
+        <v>134</v>
       </c>
       <c r="C32">
         <v>17</v>
       </c>
       <c r="D32" t="s">
-        <v>165</v>
+        <v>9</v>
       </c>
       <c r="E32" t="s">
-        <v>66</v>
+        <v>135</v>
       </c>
       <c r="F32" t="s">
-        <v>67</v>
+        <v>75</v>
       </c>
     </row>
     <row r="33" spans="1:6">
       <c r="A33" t="s">
-        <v>69</v>
+        <v>77</v>
       </c>
       <c r="B33" t="s">
-        <v>70</v>
+        <v>78</v>
       </c>
       <c r="C33">
         <v>16</v>
       </c>
       <c r="D33" t="s">
-        <v>71</v>
+        <v>79</v>
       </c>
       <c r="E33" t="s">
-        <v>161</v>
+        <v>5</v>
       </c>
       <c r="F33" t="s">
-        <v>72</v>
+        <v>80</v>
       </c>
     </row>
     <row r="34" spans="1:6">
       <c r="A34" t="s">
-        <v>73</v>
+        <v>81</v>
       </c>
       <c r="B34" t="s">
-        <v>74</v>
+        <v>82</v>
       </c>
       <c r="C34">
         <v>21</v>
       </c>
       <c r="D34" t="s">
-        <v>168</v>
+        <v>12</v>
       </c>
       <c r="E34" t="s">
-        <v>92</v>
+        <v>99</v>
       </c>
       <c r="F34" t="s">
-        <v>51</v>
+        <v>120</v>
       </c>
     </row>
     <row r="35" spans="1:6">
       <c r="A35" t="s">
-        <v>52</v>
+        <v>121</v>
       </c>
       <c r="B35" t="s">
-        <v>53</v>
+        <v>122</v>
       </c>
       <c r="C35">
         <v>39</v>
       </c>
       <c r="D35" t="s">
-        <v>168</v>
+        <v>12</v>
       </c>
       <c r="E35" t="s">
-        <v>158</v>
+        <v>2</v>
       </c>
       <c r="F35" t="s">
-        <v>54</v>
+        <v>123</v>
       </c>
     </row>
     <row r="36" spans="1:6">
       <c r="A36" t="s">
-        <v>56</v>
+        <v>125</v>
       </c>
       <c r="B36" t="s">
-        <v>57</v>
+        <v>126</v>
       </c>
       <c r="C36">
         <v>23</v>
       </c>
       <c r="D36" t="s">
-        <v>153</v>
+        <v>49</v>
       </c>
       <c r="E36" t="s">
-        <v>55</v>
+        <v>124</v>
       </c>
       <c r="F36" t="s">
-        <v>31</v>
+        <v>165</v>
       </c>
     </row>
     <row r="37" spans="1:6">
       <c r="A37" t="s">
-        <v>58</v>
+        <v>127</v>
       </c>
       <c r="B37" t="s">
-        <v>59</v>
+        <v>128</v>
       </c>
       <c r="C37">
         <v>11</v>
       </c>
       <c r="D37" t="s">
-        <v>148</v>
+        <v>44</v>
       </c>
       <c r="E37" t="s">
-        <v>60</v>
+        <v>129</v>
       </c>
       <c r="F37" t="s">
-        <v>30</v>
+        <v>164</v>
       </c>
     </row>
     <row r="38" spans="1:6">
       <c r="A38" t="s">
-        <v>32</v>
+        <v>166</v>
       </c>
       <c r="B38" t="s">
-        <v>33</v>
+        <v>167</v>
       </c>
       <c r="C38">
         <v>20</v>
       </c>
       <c r="D38" t="s">
-        <v>165</v>
+        <v>9</v>
       </c>
       <c r="E38" t="s">
-        <v>60</v>
+        <v>129</v>
       </c>
       <c r="F38" t="s">
-        <v>34</v>
+        <v>168</v>
       </c>
     </row>
     <row r="39" spans="1:6">
       <c r="A39" t="s">
-        <v>35</v>
+        <v>169</v>
       </c>
       <c r="B39" t="s">
-        <v>37</v>
+        <v>107</v>
       </c>
       <c r="C39">
         <v>6</v>
       </c>
       <c r="D39" t="s">
-        <v>148</v>
+        <v>44</v>
       </c>
       <c r="E39" t="s">
-        <v>92</v>
+        <v>99</v>
       </c>
       <c r="F39" t="s">
-        <v>36</v>
+        <v>106</v>
       </c>
     </row>
     <row r="40" spans="1:6">
       <c r="A40" t="s">
-        <v>38</v>
+        <v>108</v>
       </c>
       <c r="B40" t="s">
-        <v>39</v>
+        <v>109</v>
       </c>
       <c r="C40">
         <v>10</v>
       </c>
       <c r="D40" t="s">
-        <v>126</v>
+        <v>22</v>
       </c>
       <c r="E40" t="s">
-        <v>43</v>
+        <v>113</v>
       </c>
       <c r="F40" t="s">
-        <v>40</v>
+        <v>110</v>
       </c>
     </row>
     <row r="41" spans="1:6">
       <c r="A41" t="s">
-        <v>38</v>
+        <v>108</v>
       </c>
       <c r="B41" t="s">
-        <v>41</v>
+        <v>111</v>
       </c>
       <c r="C41">
         <v>8</v>
       </c>
       <c r="D41" t="s">
-        <v>42</v>
+        <v>112</v>
       </c>
       <c r="E41" t="s">
-        <v>43</v>
+        <v>113</v>
       </c>
       <c r="F41" t="s">
-        <v>44</v>
+        <v>114</v>
       </c>
     </row>
     <row r="42" spans="1:6">
       <c r="A42" t="s">
-        <v>46</v>
+        <v>115</v>
       </c>
       <c r="B42" t="s">
-        <v>47</v>
+        <v>116</v>
       </c>
       <c r="C42">
         <v>26</v>
       </c>
       <c r="D42" t="s">
-        <v>168</v>
+        <v>12</v>
       </c>
       <c r="E42" t="s">
-        <v>138</v>
+        <v>34</v>
       </c>
       <c r="F42" t="s">
-        <v>45</v>
+        <v>18</v>
       </c>
     </row>
     <row r="43" spans="1:6">
       <c r="A43" t="s">
-        <v>48</v>
+        <v>117</v>
       </c>
       <c r="B43" t="s">
-        <v>9</v>
+        <v>144</v>
       </c>
       <c r="C43">
         <v>20</v>
       </c>
       <c r="D43" t="s">
-        <v>165</v>
+        <v>9</v>
       </c>
       <c r="E43" t="s">
-        <v>50</v>
+        <v>119</v>
       </c>
       <c r="F43" t="s">
-        <v>49</v>
+        <v>118</v>
       </c>
     </row>
     <row r="44" spans="1:6">
       <c r="A44" t="s">
-        <v>10</v>
+        <v>145</v>
       </c>
       <c r="B44" t="s">
-        <v>11</v>
+        <v>146</v>
       </c>
       <c r="C44">
         <v>18</v>
       </c>
       <c r="D44" t="s">
-        <v>153</v>
+        <v>49</v>
       </c>
       <c r="E44" t="s">
-        <v>12</v>
+        <v>147</v>
       </c>
       <c r="F44" t="s">
-        <v>13</v>
+        <v>148</v>
       </c>
     </row>
     <row r="45" spans="1:6">
       <c r="A45" t="s">
-        <v>14</v>
+        <v>149</v>
       </c>
       <c r="B45" t="s">
-        <v>16</v>
+        <v>151</v>
       </c>
       <c r="C45">
         <v>22</v>
       </c>
       <c r="D45" t="s">
-        <v>126</v>
+        <v>22</v>
       </c>
       <c r="E45" t="s">
-        <v>50</v>
+        <v>119</v>
       </c>
       <c r="F45" t="s">
-        <v>15</v>
+        <v>150</v>
       </c>
     </row>
     <row r="46" spans="1:6">
       <c r="A46" t="s">
-        <v>17</v>
+        <v>152</v>
       </c>
       <c r="B46" t="s">
-        <v>18</v>
+        <v>153</v>
       </c>
       <c r="C46">
         <v>33</v>
       </c>
       <c r="D46" t="s">
-        <v>126</v>
+        <v>22</v>
       </c>
       <c r="E46" t="s">
-        <v>19</v>
+        <v>154</v>
       </c>
       <c r="F46" t="s">
-        <v>20</v>
+        <v>155</v>
       </c>
     </row>
     <row r="47" spans="1:6">
       <c r="A47" t="s">
-        <v>22</v>
+        <v>157</v>
       </c>
       <c r="B47" t="s">
-        <v>23</v>
+        <v>158</v>
       </c>
       <c r="C47">
         <v>10</v>
       </c>
       <c r="D47" t="s">
-        <v>42</v>
+        <v>112</v>
       </c>
       <c r="E47" t="s">
-        <v>92</v>
+        <v>99</v>
       </c>
       <c r="F47" t="s">
-        <v>21</v>
+        <v>156</v>
       </c>
     </row>
     <row r="48" spans="1:6">
       <c r="A48" t="s">
-        <v>48</v>
+        <v>117</v>
       </c>
       <c r="B48" t="s">
-        <v>26</v>
+        <v>160</v>
       </c>
       <c r="C48">
         <v>26</v>
       </c>
       <c r="D48" t="s">
-        <v>42</v>
+        <v>112</v>
       </c>
       <c r="E48" t="s">
-        <v>25</v>
+        <v>159</v>
       </c>
       <c r="F48" t="s">
-        <v>24</v>
+        <v>15</v>
       </c>
     </row>
     <row r="49" spans="1:6">
       <c r="A49" t="s">
-        <v>27</v>
+        <v>161</v>
       </c>
       <c r="B49" t="s">
-        <v>29</v>
+        <v>163</v>
       </c>
       <c r="C49">
         <v>22</v>
       </c>
       <c r="D49" t="s">
-        <v>148</v>
+        <v>44</v>
       </c>
       <c r="E49" t="s">
-        <v>50</v>
+        <v>119</v>
       </c>
       <c r="F49" t="s">
-        <v>28</v>
+        <v>162</v>
       </c>
     </row>
     <row r="50" spans="1:6">
       <c r="A50" t="s">
-        <v>7</v>
+        <v>142</v>
       </c>
       <c r="B50" t="s">
-        <v>8</v>
+        <v>143</v>
       </c>
       <c r="C50">
         <v>31</v>
       </c>
       <c r="D50" t="s">
-        <v>42</v>
+        <v>112</v>
       </c>
       <c r="E50" t="s">
-        <v>92</v>
+        <v>99</v>
       </c>
       <c r="F50" t="s">
-        <v>0</v>
+        <v>136</v>
       </c>
     </row>
     <row r="51" spans="1:6">
       <c r="A51" t="s">
-        <v>1</v>
+        <v>137</v>
       </c>
       <c r="B51" t="s">
-        <v>2</v>
+        <v>138</v>
       </c>
       <c r="C51">
         <v>26</v>
       </c>
       <c r="D51" t="s">
-        <v>153</v>
+        <v>49</v>
       </c>
       <c r="E51" t="s">
-        <v>50</v>
+        <v>119</v>
       </c>
       <c r="F51" t="s">
-        <v>28</v>
+        <v>162</v>
       </c>
     </row>
     <row r="52" spans="1:6">
       <c r="A52" t="s">
-        <v>4</v>
+        <v>139</v>
       </c>
       <c r="B52" t="s">
-        <v>5</v>
+        <v>140</v>
       </c>
       <c r="C52">
         <v>18</v>
       </c>
       <c r="D52" t="s">
-        <v>6</v>
+        <v>141</v>
       </c>
       <c r="E52" t="s">
-        <v>161</v>
+        <v>5</v>
       </c>
       <c r="F52" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
